--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-91979.2124843038</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26306649.68548651</v>
+        <v>25073738.0317228</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24432358.9548685</v>
+        <v>23054206.90106959</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.120146366522109e-10</v>
+        <v>778705.6094641199</v>
       </c>
     </row>
     <row r="11">
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8225,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -8234,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8383,16 +8385,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8471,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8705,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9334,13 +9336,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9556,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9881,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,19 +10269,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10358,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10978,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11230,10 +11232,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -22568,31 +22570,31 @@
         <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>133.9282644538401</v>
@@ -22644,34 +22646,34 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>40.3065639</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>106.9101097868343</v>
@@ -22726,28 +22728,28 @@
         <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
-        <v>51.43314568295542</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>52.25036955906683</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>54.62829389390151</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>56.26494249878004</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>51.71264550841944</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>56.07489807299633</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>55.77984163990478</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.35952565992557</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>84.41999114135434</v>
@@ -22805,7 +22807,7 @@
         <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
@@ -22817,7 +22819,7 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
@@ -22826,10 +22828,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>133.9282644538401</v>
@@ -22881,10 +22883,10 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>40.3065639</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
@@ -22896,7 +22898,7 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
@@ -22908,7 +22910,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>106.9101097868343</v>
@@ -22963,10 +22965,10 @@
         <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
-        <v>51.43314568295542</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>52.25036955906683</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>54.62829389390151</v>
@@ -22975,16 +22977,16 @@
         <v>56.26494249878004</v>
       </c>
       <c r="N7" t="n">
-        <v>51.71264550841944</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>56.07489807299633</v>
       </c>
       <c r="P7" t="n">
-        <v>55.77984163990478</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.35952565992557</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>84.41999114135434</v>
@@ -23042,10 +23044,10 @@
         <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
@@ -23054,7 +23056,7 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>93.18977562578313</v>
@@ -23063,10 +23065,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>133.9282644538401</v>
@@ -23279,7 +23281,7 @@
         <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>89.13638967321712</v>
@@ -23297,13 +23299,13 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>133.9282644538401</v>
@@ -23516,7 +23518,7 @@
         <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>89.13638967321712</v>
@@ -23528,19 +23530,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>133.9282644538401</v>
@@ -23592,13 +23594,13 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
-        <v>40.3065639</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
@@ -23613,13 +23615,13 @@
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>106.9101097868343</v>
@@ -23674,28 +23676,28 @@
         <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
-        <v>51.43314568295542</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>52.25036955906683</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>54.62829389390151</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>56.26494249878004</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>51.71264550841944</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>56.07489807299633</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>55.77984163990478</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.35952565992557</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>84.41999114135434</v>
@@ -23753,10 +23755,10 @@
         <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>95.48539806284482</v>
@@ -23768,16 +23770,16 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>93.18977562578313</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>133.9282644538401</v>
@@ -23829,13 +23831,13 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I18" t="n">
-        <v>40.3065639</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
@@ -23853,10 +23855,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>106.9101097868343</v>
@@ -23911,10 +23913,10 @@
         <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
-        <v>51.43314568295542</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>52.25036955906683</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>54.62829389390151</v>
@@ -23926,13 +23928,13 @@
         <v>51.71264550841944</v>
       </c>
       <c r="O19" t="n">
-        <v>56.07489807299633</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>55.77984163990478</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.35952565992557</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>84.41999114135434</v>
@@ -24066,13 +24068,13 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I21" t="n">
-        <v>40.3065639</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
@@ -24081,7 +24083,7 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
@@ -24148,25 +24150,25 @@
         <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
-        <v>51.43314568295542</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>52.25036955906683</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>54.62829389390151</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>56.26494249878004</v>
       </c>
       <c r="N22" t="n">
-        <v>51.71264550841944</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>56.07489807299633</v>
       </c>
       <c r="P22" t="n">
-        <v>55.77984163990478</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>61.35952565992557</v>
@@ -24227,7 +24229,7 @@
         <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>89.13638967321712</v>
@@ -24245,13 +24247,13 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31214281472352</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>133.9282644538401</v>
@@ -24303,16 +24305,16 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I24" t="n">
-        <v>40.3065639</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
@@ -24330,7 +24332,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>106.9101097868343</v>
@@ -24385,28 +24387,28 @@
         <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
-        <v>51.43314568295542</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>52.25036955906683</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>54.62829389390151</v>
       </c>
       <c r="M25" t="n">
-        <v>56.26494249878004</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>51.71264550841944</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>56.07489807299633</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>55.77984163990478</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.35952565992557</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>84.41999114135434</v>
@@ -24473,7 +24475,7 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>93.29022445704545</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>92.91229075661933</v>
@@ -24488,7 +24490,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
-        <v>87.31214281472352</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>133.9282644538401</v>
@@ -24540,16 +24542,16 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
-        <v>40.3065639</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
@@ -24567,7 +24569,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>106.9101097868343</v>
@@ -24622,10 +24624,10 @@
         <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
-        <v>51.43314568295542</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>52.25036955906683</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>54.62829389390151</v>
@@ -24701,7 +24703,7 @@
         <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>89.13638967321712</v>
@@ -24725,7 +24727,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>133.9282644538401</v>
@@ -24777,16 +24779,16 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>40.3065639</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -24804,7 +24806,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>106.9101097868343</v>
@@ -24859,19 +24861,19 @@
         <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
-        <v>51.43314568295542</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>52.25036955906683</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>54.62829389390151</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>56.26494249878004</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>51.71264550841944</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>56.07489807299633</v>
@@ -24938,7 +24940,7 @@
         <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>89.13638967321712</v>
@@ -24950,19 +24952,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>87.31214281472352</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>133.9282644538401</v>
@@ -25014,16 +25016,16 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>40.3065639</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -25035,13 +25037,13 @@
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>106.9101097868343</v>
@@ -25096,28 +25098,28 @@
         <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
-        <v>51.43314568295542</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>52.25036955906683</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>54.62829389390151</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>56.26494249878004</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>51.71264550841944</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>56.07489807299633</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>55.77984163990478</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.35952565992557</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>84.41999114135434</v>
@@ -25251,7 +25253,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>40.3065639</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J36" t="n">
         <v>51.36923880000001</v>
@@ -25278,7 +25280,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>106.9101097868343</v>
@@ -25336,7 +25338,7 @@
         <v>51.43314568295542</v>
       </c>
       <c r="K37" t="n">
-        <v>52.25036955906683</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>54.62829389390151</v>
@@ -25488,7 +25490,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
-        <v>40.3065639</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J39" t="n">
         <v>51.36923880000001</v>
@@ -25570,7 +25572,7 @@
         <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
-        <v>51.43314568295542</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>52.25036955906683</v>
@@ -25725,7 +25727,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
-        <v>40.3065639</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J42" t="n">
         <v>51.36923880000001</v>
@@ -25752,7 +25754,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>106.9101097868343</v>
@@ -25822,10 +25824,10 @@
         <v>51.71264550841944</v>
       </c>
       <c r="O43" t="n">
-        <v>56.07489807299633</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>55.77984163990478</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>61.35952565992557</v>
@@ -25877,49 +25879,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>404.2587463296498</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>303.8846440306781</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>70.75136161874995</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>40.88018142109519</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>40.5121283012307</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>35.16270217958864</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>26.16960234776164</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>24.70558680915735</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>28.78411920260946</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>38.68062560122957</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>48.7545716309821</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>63.30032116317597</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>125.2176300895691</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>218.3110982283159</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>254.4593064281693</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25956,49 +25958,49 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>105.7156871369127</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>68.06446549689447</v>
       </c>
       <c r="I45" t="n">
-        <v>40.3065639</v>
+        <v>33.26482393573522</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>32.04616611589456</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>22.79957383374449</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>11.70671018907476</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>5.742459823057352</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>9.089916217646909</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>15.20444079080882</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>30.58525545770977</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>46.3017442093376</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>103.1111583538838</v>
       </c>
       <c r="T45" t="n">
-        <v>157.7484451748619</v>
+        <v>156.9240682287269</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3638471990916</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -26035,49 +26037,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>165.4064207588183</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>146.5868884245434</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>110.0261230059151</v>
       </c>
       <c r="J46" t="n">
-        <v>51.43314568295542</v>
+        <v>39.31047085697391</v>
       </c>
       <c r="K46" t="n">
-        <v>52.25036955906683</v>
+        <v>32.32909088142202</v>
       </c>
       <c r="L46" t="n">
-        <v>54.62829389390151</v>
+        <v>29.1359158427119</v>
       </c>
       <c r="M46" t="n">
-        <v>56.26494249878004</v>
+        <v>29.38680413894989</v>
       </c>
       <c r="N46" t="n">
-        <v>51.71264550841944</v>
+        <v>25.47360920319289</v>
       </c>
       <c r="O46" t="n">
-        <v>56.07489807299633</v>
+        <v>31.8389011340275</v>
       </c>
       <c r="P46" t="n">
-        <v>55.77984163990478</v>
+        <v>35.04175936076656</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.35952565992557</v>
+        <v>47.00155242833039</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>76.71023806313595</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>181.5396586372421</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>236.4206224485193</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>279.9608132663429</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.833541318774223e-11</v>
+        <v>169757.9546489323</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.833541318774223e-11</v>
+        <v>72910.40009833402</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.833541318774223e-11</v>
+        <v>60277.64790349885</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.833541318774223e-11</v>
+        <v>47963.62302464985</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.833541318774223e-11</v>
+        <v>88854.68960118708</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.833541318774223e-11</v>
+        <v>89950.88301566121</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.833541318774223e-11</v>
+        <v>24531.19785113871</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.833541318774223e-11</v>
+        <v>82090.36856454593</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.833541318774223e-11</v>
+        <v>47474.59745889249</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.833541318774223e-11</v>
+        <v>51522.6925046021</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.833541318774223e-11</v>
+        <v>105496.0756603985</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.833541318774223e-11</v>
+        <v>8038.927310907474</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.833541318774223e-11</v>
+        <v>3626.789134489716</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.833541318774223e-11</v>
+        <v>10542.31085736851</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.833541318774223e-11</v>
+        <v>91501.45202217718</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7291.040009833409</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>6027.764790349888</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4796.362302464983</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8885.468960118713</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8995.088301566126</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2453.119785113873</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8209.036856454601</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4747.45974588925</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5152.269250460211</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>10549.60756603985</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>803.8927310907491</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>362.678913448973</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1054.231085736853</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>10166.82800246413</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>63286.90325557741</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7291.04000983341</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6027.764790349888</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4796.362302464983</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>8885.468960118715</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>8995.088301566124</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2453.119785113873</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>8209.036856454601</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4747.459745889251</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5152.26925046021</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>10549.60756603984</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>803.8927310907491</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>362.678913448973</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1054.231085736853</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2072.872956614403</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.59999999999</v>
       </c>
       <c r="C6" t="n">
         <v>-33627.6</v>
@@ -26534,7 +26536,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -26546,10 +26548,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -26561,7 +26563,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-55192.94820972769</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>95.08591544102765</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>95.08591544102765</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.3822549364463421</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.914768367881102</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>14.73688343734762</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>32.44340991221275</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>48.62426137198642</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>60.32269588325618</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>67.12062210928381</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>68.20670394746197</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>64.40565642317367</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>54.96873767965459</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>41.27923276816995</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>24.01182165154755</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>8.710634364271028</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.673320984293863</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.03058039491570735</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.2045244218920218</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.975275337746631</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.041739964264785</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>19.32307268410544</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>33.0262089508709</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>44.40781362177429</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.82182391536007</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>48.66156278235309</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39.05519421199493</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>26.10736304712895</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>12.69845489606781</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>3.798951432950489</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.8243769461349471</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.01345555407184354</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.1714664048936564</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.52449221805451</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>5.15646243080196</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>12.12267482598151</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>19.9212786776448</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>25.49237805118961</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>26.87813835983015</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>26.23903630522655</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>24.23599693896883</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>20.73808227913822</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>14.35797323159518</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.709753078218404</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.98819180164672</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.7326291845456226</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.009352712994199451</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91979.2124843038</v>
+        <v>-103588.3943750937</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25073738.0317228</v>
+        <v>22668979.22872371</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23054206.90106959</v>
+        <v>20794688.49810569</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>778705.6094641199</v>
+        <v>1962932.097858424</v>
       </c>
     </row>
     <row r="11">
@@ -8218,22 +8218,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
@@ -8297,25 +8297,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8379,16 +8379,16 @@
         <v>52.25036955906683</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N7" t="n">
         <v>51.71264550841944</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P7" t="n">
         <v>55.77984163990478</v>
@@ -8458,19 +8458,19 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,19 +8692,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,25 +8929,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9011,16 +9011,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9169,19 +9169,19 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
         <v>90.03380439915205</v>
@@ -9248,19 +9248,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9327,13 +9327,13 @@
         <v>52.25036955906683</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O19" t="n">
         <v>56.07489807299633</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9567,19 +9567,19 @@
         <v>54.62829389390151</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N22" t="n">
         <v>51.71264550841944</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P22" t="n">
         <v>55.77984163990478</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
         <v>93.64936328088416</v>
@@ -9725,19 +9725,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9801,7 +9801,7 @@
         <v>52.25036955906683</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M25" t="n">
         <v>56.26494249878004</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
         <v>87.31214281472352</v>
@@ -9962,19 +9962,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10038,22 +10038,22 @@
         <v>52.25036955906683</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10114,25 +10114,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
         <v>87.31214281472352</v>
@@ -10199,19 +10199,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10284,13 +10284,13 @@
         <v>51.71264550841944</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
         <v>92.91229075661933</v>
@@ -10366,7 +10366,7 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
         <v>90.03380439915205</v>
@@ -10436,13 +10436,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K37" t="n">
         <v>52.25036955906683</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>51.43314568295542</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11217,19 +11217,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O43" t="n">
         <v>56.07489807299633</v>
@@ -11238,7 +11238,7 @@
         <v>55.77984163990478</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22810,22 +22810,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -22889,25 +22889,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -22971,16 +22971,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>54.62829389390151</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>56.26494249878004</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>56.07489807299633</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -23050,19 +23050,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -23120,34 +23120,34 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>40.3065639</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>106.9101097868343</v>
@@ -23202,28 +23202,28 @@
         <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
-        <v>51.43314568295542</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>52.25036955906683</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>54.62829389390151</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>56.26494249878004</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>51.71264550841944</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>56.07489807299633</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>55.77984163990478</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.35952565992557</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>84.41999114135434</v>
@@ -23284,19 +23284,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>93.29022445704545</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -23357,34 +23357,34 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>40.3065639</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>106.9101097868343</v>
@@ -23439,28 +23439,28 @@
         <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
-        <v>51.43314568295542</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>52.25036955906683</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>54.62829389390151</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>56.26494249878004</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>51.71264550841944</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>56.07489807299633</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>55.77984163990478</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.35952565992557</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>84.41999114135434</v>
@@ -23521,25 +23521,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -23603,16 +23603,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -23761,19 +23761,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>95.48539806284482</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>93.29022445704545</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>92.91229075661933</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -23840,19 +23840,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -23919,13 +23919,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>54.62829389390151</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>56.26494249878004</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>51.71264550841944</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -23992,31 +23992,31 @@
         <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>95.48539806284482</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>93.29022445704545</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>93.18977562578313</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>133.9282644538401</v>
@@ -24077,25 +24077,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>106.9101097868343</v>
@@ -24159,19 +24159,19 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>56.26494249878004</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>56.07489807299633</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.35952565992557</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>84.41999114135434</v>
@@ -24232,19 +24232,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>95.48539806284482</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>93.29022445704545</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661933</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>93.18977562578313</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -24317,19 +24317,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -24393,7 +24393,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>54.62829389390151</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -24466,28 +24466,28 @@
         <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>95.48539806284482</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661933</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.18977562578313</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -24554,19 +24554,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -24630,22 +24630,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>54.62829389390151</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>56.26494249878004</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>51.71264550841944</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>56.07489807299633</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>55.77984163990478</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.35952565992557</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>84.41999114135434</v>
@@ -24706,25 +24706,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>95.48539806284482</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.29022445704545</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>92.91229075661933</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.18977562578313</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -24791,19 +24791,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -24876,13 +24876,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>56.07489807299633</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>55.77984163990478</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.35952565992557</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>84.41999114135434</v>
@@ -24943,13 +24943,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>95.48539806284482</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>93.29022445704545</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -24958,7 +24958,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -25028,13 +25028,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -25177,31 +25177,31 @@
         <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>95.48539806284482</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>93.29022445704545</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>92.91229075661933</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>93.18977562578313</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31214281472352</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>133.9282644538401</v>
@@ -25256,28 +25256,28 @@
         <v>20.54110546596223</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -25335,28 +25335,28 @@
         <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
-        <v>51.43314568295542</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>54.62829389390151</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>56.26494249878004</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>51.71264550841944</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>56.07489807299633</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>55.77984163990478</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>61.35952565992557</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>84.41999114135434</v>
@@ -25414,31 +25414,31 @@
         <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>95.48539806284482</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>92.91229075661933</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>93.18977562578313</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>93.64936328088416</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>133.9282644538401</v>
@@ -25493,31 +25493,31 @@
         <v>20.54110546596223</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>106.9101097868343</v>
@@ -25575,25 +25575,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>52.25036955906683</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>54.62829389390151</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>56.26494249878004</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>51.71264550841944</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>56.07489807299633</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>55.77984163990478</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>61.35952565992557</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>84.41999114135434</v>
@@ -25651,31 +25651,31 @@
         <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>133.9282644538401</v>
@@ -25730,28 +25730,28 @@
         <v>20.54110546596223</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -25809,19 +25809,19 @@
         <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
-        <v>51.43314568295542</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>52.25036955906683</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>54.62829389390151</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>56.26494249878004</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>51.71264550841944</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.35952565992557</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>84.41999114135434</v>
@@ -25879,49 +25879,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.2587463296498</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>303.8846440306781</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>70.75136161874995</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
-        <v>40.88018142109519</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>40.5121283012307</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>35.16270217958864</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>26.16960234776164</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>24.70558680915735</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>28.78411920260946</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>38.68062560122957</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.7545716309821</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.30032116317597</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>125.2176300895691</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>218.3110982283159</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4593064281693</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25958,49 +25958,49 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.7156871369127</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>68.06446549689447</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>33.26482393573522</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
-        <v>32.04616611589456</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>22.79957383374449</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>11.70671018907476</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>5.742459823057352</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>9.089916217646909</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>15.20444079080882</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.58525545770977</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>46.3017442093376</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>103.1111583538838</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>156.9240682287269</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3638471990916</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -26037,49 +26037,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.4064207588183</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>146.5868884245434</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>110.0261230059151</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
-        <v>39.31047085697391</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>32.32909088142202</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>29.1359158427119</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>29.38680413894989</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>25.47360920319289</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>31.8389011340275</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>35.04175936076656</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.00155242833039</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>76.71023806313595</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>181.5396586372421</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>236.4206224485193</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9608132663429</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>72910.40009833402</v>
+        <v>169757.9546489323</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>60277.64790349885</v>
+        <v>169757.9546489323</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>47963.62302464985</v>
+        <v>169757.9546489323</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>88854.68960118708</v>
+        <v>169757.9546489323</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>89950.88301566121</v>
+        <v>169757.9546489323</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24531.19785113871</v>
+        <v>169757.9546489323</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82090.36856454593</v>
+        <v>169757.9546489323</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>47474.59745889249</v>
+        <v>169757.9546489323</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>51522.6925046021</v>
+        <v>169757.9546489323</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>105496.0756603985</v>
+        <v>169757.9546489323</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8038.927310907474</v>
+        <v>169757.9546489323</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3626.789134489716</v>
+        <v>169757.9546489323</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10542.31085736851</v>
+        <v>169757.9546489323</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>91501.45202217718</v>
+        <v>169757.9546489323</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>16975.79546489323</v>
       </c>
       <c r="C2" t="n">
-        <v>7291.040009833409</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="D2" t="n">
-        <v>6027.764790349888</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="E2" t="n">
-        <v>4796.362302464983</v>
+        <v>16975.79546489324</v>
       </c>
       <c r="F2" t="n">
-        <v>8885.468960118713</v>
+        <v>16975.79546489324</v>
       </c>
       <c r="G2" t="n">
-        <v>8995.088301566126</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="H2" t="n">
-        <v>2453.119785113873</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="I2" t="n">
-        <v>8209.036856454601</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="J2" t="n">
-        <v>4747.45974588925</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="K2" t="n">
-        <v>5152.269250460211</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="L2" t="n">
-        <v>10549.60756603985</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="M2" t="n">
-        <v>803.8927310907491</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="N2" t="n">
-        <v>362.678913448973</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="O2" t="n">
-        <v>1054.231085736853</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="P2" t="n">
-        <v>10166.82800246413</v>
+        <v>16975.79546489323</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>63286.90325557741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>16975.79546489323</v>
       </c>
       <c r="C4" t="n">
-        <v>7291.04000983341</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="D4" t="n">
-        <v>6027.764790349888</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="E4" t="n">
-        <v>4796.362302464983</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="F4" t="n">
-        <v>8885.468960118715</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="G4" t="n">
-        <v>8995.088301566124</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="H4" t="n">
-        <v>2453.119785113873</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="I4" t="n">
-        <v>8209.036856454601</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="J4" t="n">
-        <v>4747.459745889251</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="K4" t="n">
-        <v>5152.26925046021</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="L4" t="n">
-        <v>10549.60756603984</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="M4" t="n">
-        <v>803.8927310907491</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="N4" t="n">
-        <v>362.678913448973</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="O4" t="n">
-        <v>1054.231085736853</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>16975.79546489323</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2072.872956614403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-35013.91256654037</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-35013.91256654038</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-35013.91256654037</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1386.312566540377</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1386.312566540377</v>
       </c>
       <c r="G6" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>-1386.312566540377</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-1386.31256654038</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-1386.312566540377</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-1386.31256654038</v>
       </c>
       <c r="K6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-1386.312566540377</v>
       </c>
       <c r="L6" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>-1386.31256654038</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-1386.312566540377</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-1386.31256654038</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-1386.312566540377</v>
       </c>
       <c r="P6" t="n">
-        <v>-55192.94820972769</v>
+        <v>-1386.31256654038</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>95.08591544102765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>95.08591544102765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3822549364463421</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>3.914768367881102</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>14.73688343734762</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>32.44340991221275</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>48.62426137198642</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>60.32269588325618</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>67.12062210928381</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>68.20670394746197</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>64.40565642317367</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>54.96873767965459</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>41.27923276816995</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>24.01182165154755</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.710634364271028</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.673320984293863</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03058039491570735</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2045244218920218</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.975275337746631</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.041739964264785</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>19.32307268410544</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>33.0262089508709</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>44.40781362177429</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.82182391536007</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>48.66156278235309</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>39.05519421199493</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>26.10736304712895</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>12.69845489606781</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>3.798951432950489</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8243769461349471</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01345555407184354</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1714664048936564</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.52449221805451</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>5.15646243080196</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.12267482598151</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>19.9212786776448</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>25.49237805118961</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>26.87813835983015</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>26.23903630522655</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>24.23599693896883</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>20.73808227913822</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>14.35797323159518</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.709753078218404</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.98819180164672</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7326291845456226</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009352712994199451</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
